--- a/data/trans_dic/P41_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene contrato temporal en la actualidad</t>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,36%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>46,98%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>58,3%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 72,47</t>
+          <t>0,0; 19,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,98; 90,41</t>
+          <t>4,83; 64,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 83,8</t>
+          <t>5,23; 64,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,28; 90,09</t>
+          <t>2,91; 68,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,31; 75,85</t>
+          <t>0,0; 71,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,3; 73,06</t>
+          <t>1,6; 15,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 64,32</t>
+          <t>1,59; 15,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 66,8</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,86; 65,81</t>
+          <t>0,0; 14,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,56; 81,75</t>
+          <t>1,25; 14,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 72,13</t>
+          <t>2,43; 11,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 79,97</t>
+          <t>5,93; 40,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 44,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 48,75</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 46,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 35,34</t>
+          <t>4,8; 13,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,42; 43,9</t>
+          <t>6,92; 17,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,43; 40,76</t>
+          <t>8,6; 20,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,98; 48,97</t>
+          <t>10,79; 25,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 41,01</t>
+          <t>4,0; 14,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 47,68</t>
+          <t>5,41; 14,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,88; 46,73</t>
+          <t>6,13; 15,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,76; 41,75</t>
+          <t>5,64; 14,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,64; 34,09</t>
+          <t>3,28; 10,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 41,76</t>
+          <t>5,91; 15,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,65; 39,19</t>
+          <t>6,14; 12,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,35; 43,8</t>
+          <t>7,48; 14,55</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 15,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 16,31</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 12,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19,15%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 25,91</t>
+          <t>4,73; 15,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 27,93</t>
+          <t>6,38; 17,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 32,63</t>
+          <t>7,21; 19,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,07; 36,0</t>
+          <t>10,34; 24,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 33,9</t>
+          <t>1,09; 9,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 31,44</t>
+          <t>13,83; 25,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 36,92</t>
+          <t>11,49; 23,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,84; 38,64</t>
+          <t>13,75; 26,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 27,0</t>
+          <t>15,32; 28,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 27,52</t>
+          <t>6,51; 16,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,35; 32,38</t>
+          <t>10,96; 19,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 34,69</t>
+          <t>10,73; 18,85</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 20,89</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 24,14</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 10,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 28,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 38,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,14; 37,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,66; 44,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,23; 34,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,2; 36,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 38,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 37,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 29,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,87; 34,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,64; 39,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 11,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 22,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 22,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 28,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 24,79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9,84; 16,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 16,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 16,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,09; 15,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 12,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 13,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 17,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 18,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 20,71</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 17,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34637</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28400</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32804</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54161</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7570</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9141</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6197</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6115</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9518</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13381</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43778</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>34598</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>38919</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>63679</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20424</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6229; 82756</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5518; 68064</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3323; 77644</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 126310</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1880; 18086</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2237; 21659</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17170</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17158</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2644; 29923</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5381; 26479</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15963; 109985</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10261; 95278</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8858; 112557</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7500; 182576</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32062</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51169</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68075</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40340</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>35869</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45864</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35377</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22809</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48591</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67931</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94583</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>86546</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>90884</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>88931</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17563; 51178</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29711; 74545</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>32365; 78533</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43091; 101468</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20296; 72517</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21119; 54832</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28031; 71196</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20999; 54149</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12035; 39430</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29026; 74944</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46463; 93095</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66268; 128994</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>58267; 113594</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>62590; 124973</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>58877; 129615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26359</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36598</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35883</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13009</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69897</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72957</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66399</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>69390</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42397</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96257</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109555</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>102282</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>114460</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>55405</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13512; 44206</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21223; 59560</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20354; 55794</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28465; 66392</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3763; 32369</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49724; 92846</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48941; 98255</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46616; 88542</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49351; 92682</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25838; 63718</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>70744; 123693</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81402; 142981</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>72946; 129826</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>84740; 144264</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36737; 79864</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64233</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>119954</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>115453</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>145948</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>107509</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>113336</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>127962</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>107973</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>98314</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>100506</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>177570</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>247916</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>223425</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>244263</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>208015</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43822; 90483</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>80312; 201182</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79469; 173814</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>102713; 222398</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47486; 254987</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>85377; 146230</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95891; 167837</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81851; 138490</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>73243; 127789</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>74985; 138193</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>142705; 215680</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>200953; 342618</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>180515; 289297</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>196626; 330214</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>136054; 376839</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
